--- a/RQ1/Accuracy_per_tuple_type.xlsx
+++ b/RQ1/Accuracy_per_tuple_type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE1C443-AD14-5544-ACBC-849D59B70115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0233D15-4C1B-674D-A26F-3FCA0F98699D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1600" windowWidth="28040" windowHeight="16300" xr2:uid="{E716DFAD-372A-3A47-A26D-3EAA448B89EA}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{E716DFAD-372A-3A47-A26D-3EAA448B89EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,10 @@
     <t>hasDocument</t>
   </si>
   <si>
-    <t>hasExample</t>
-  </si>
-  <si>
     <t>hasTrainedModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasExampleScript </t>
   </si>
 </sst>
 </file>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D0D54A-80B8-4B4E-8CF6-C8427AEF9978}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="133" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +632,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>23</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>23</v>

--- a/RQ1/Accuracy_per_tuple_type.xlsx
+++ b/RQ1/Accuracy_per_tuple_type.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaocy\PycharmProjects\MLTaskKG.github.io\RQ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0233D15-4C1B-674D-A26F-3FCA0F98699D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1E20AC-B425-401B-97CC-25E585C949B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{E716DFAD-372A-3A47-A26D-3EAA448B89EA}"/>
+    <workbookView xWindow="758" yWindow="503" windowWidth="28043" windowHeight="16298" xr2:uid="{E716DFAD-372A-3A47-A26D-3EAA448B89EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -100,11 +91,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,6 +111,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,7 +171,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -189,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -487,18 +485,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D0D54A-80B8-4B4E-8CF6-C8427AEF9978}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.17578125" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,194 +507,196 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1">
-        <v>65.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1">
-        <v>90.91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1">
-        <v>95.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1">
-        <v>90.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1">
-        <v>95.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1">
-        <v>78.260000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1">
-        <v>90.91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1">
-        <v>86.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1">
-        <v>86.96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1">
-        <v>91.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1">
-        <v>82.61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1">
-        <v>95.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1">
-        <v>69.569999999999993</v>
+        <v>90.63</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>